--- a/DatesAndSchedule.xlsx
+++ b/DatesAndSchedule.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jessi\Desktop\lipidlator\lipid-lator\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josep\Desktop\lipidlator\lipid-lator\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16457" windowHeight="6403"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16458" windowHeight="6402" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dates_Schedule" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="17">
   <si>
     <t>Week</t>
   </si>
@@ -66,14 +66,26 @@
   </si>
   <si>
     <t>Total Time</t>
+  </si>
+  <si>
+    <t>9pm</t>
+  </si>
+  <si>
+    <t>4:30am</t>
+  </si>
+  <si>
+    <t>Selection Screen</t>
+  </si>
+  <si>
+    <t>3 hours</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="h:mm;@"/>
+    <numFmt numFmtId="164" formatCode="h:mm;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -142,7 +154,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -170,10 +182,13 @@
     <xf numFmtId="18" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -489,23 +504,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.20703125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="9.23046875" style="1"/>
-    <col min="2" max="2" width="10.3828125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.61328125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="29.23046875" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.23046875" style="1"/>
+    <col min="1" max="1" width="9.20703125" style="1"/>
+    <col min="2" max="2" width="10.3671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.62890625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="29.20703125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.20703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -519,7 +534,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A2" s="4">
         <v>3</v>
       </c>
@@ -529,7 +544,7 @@
       <c r="C2" s="6"/>
       <c r="D2" s="7"/>
     </row>
-    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A3" s="4">
         <v>4</v>
       </c>
@@ -539,7 +554,7 @@
       <c r="C3" s="6"/>
       <c r="D3" s="7"/>
     </row>
-    <row r="4" spans="1:4" ht="44.15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" ht="43.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A4" s="4">
         <v>5</v>
       </c>
@@ -551,7 +566,7 @@
       </c>
       <c r="D4" s="7"/>
     </row>
-    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A5" s="4">
         <v>6</v>
       </c>
@@ -561,7 +576,7 @@
       <c r="C5" s="6"/>
       <c r="D5" s="7"/>
     </row>
-    <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A6" s="4">
         <v>7</v>
       </c>
@@ -571,7 +586,7 @@
       <c r="C6" s="6"/>
       <c r="D6" s="7"/>
     </row>
-    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A7" s="4">
         <v>8</v>
       </c>
@@ -581,7 +596,7 @@
       <c r="C7" s="6"/>
       <c r="D7" s="7"/>
     </row>
-    <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A8" s="4">
         <v>9</v>
       </c>
@@ -591,7 +606,7 @@
       <c r="C8" s="6"/>
       <c r="D8" s="7"/>
     </row>
-    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A9" s="4">
         <v>10</v>
       </c>
@@ -603,7 +618,7 @@
       </c>
       <c r="D9" s="7"/>
     </row>
-    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A10" s="4">
         <v>11</v>
       </c>
@@ -613,7 +628,7 @@
       <c r="C10" s="6"/>
       <c r="D10" s="7"/>
     </row>
-    <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A11" s="4">
         <v>12</v>
       </c>
@@ -623,7 +638,7 @@
       <c r="C11" s="6"/>
       <c r="D11" s="7"/>
     </row>
-    <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A12" s="4">
         <v>13</v>
       </c>
@@ -633,7 +648,7 @@
       <c r="C12" s="6"/>
       <c r="D12" s="7"/>
     </row>
-    <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A13" s="4">
         <v>14</v>
       </c>
@@ -643,7 +658,7 @@
       <c r="C13" s="6"/>
       <c r="D13" s="7"/>
     </row>
-    <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A14" s="4">
         <v>15</v>
       </c>
@@ -653,7 +668,7 @@
       <c r="C14" s="6"/>
       <c r="D14" s="7"/>
     </row>
-    <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A15" s="4">
         <v>16</v>
       </c>
@@ -665,7 +680,7 @@
       </c>
       <c r="D15" s="7"/>
     </row>
-    <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A16" s="4">
         <v>16</v>
       </c>
@@ -677,12 +692,12 @@
       </c>
       <c r="D16" s="7"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -694,25 +709,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.20703125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="15.61328125" style="9" customWidth="1"/>
-    <col min="2" max="2" width="11.921875" style="9" customWidth="1"/>
-    <col min="3" max="3" width="11.765625" style="9" customWidth="1"/>
-    <col min="4" max="4" width="35.07421875" style="9" customWidth="1"/>
-    <col min="5" max="5" width="16.765625" style="9" customWidth="1"/>
-    <col min="6" max="6" width="14.3046875" style="9" customWidth="1"/>
-    <col min="7" max="16384" width="9.23046875" style="1"/>
+    <col min="1" max="1" width="15.62890625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="11.89453125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="11.734375" style="9" customWidth="1"/>
+    <col min="4" max="4" width="35.05078125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="16.734375" style="9" customWidth="1"/>
+    <col min="6" max="6" width="14.3125" style="9" customWidth="1"/>
+    <col min="7" max="16384" width="9.20703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
@@ -732,54 +747,54 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
       <c r="E2" s="12"/>
       <c r="F2" s="11"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
       <c r="F3" s="11"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
       <c r="F4" s="11"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
       <c r="F5" s="11"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
       <c r="F6" s="11"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
       <c r="E7" s="12"/>
       <c r="F7" s="11"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F8" s="11"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F9" s="11"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F10" s="11"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F11" s="11"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F12" s="11"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F13" s="11"/>
     </row>
   </sheetData>
@@ -789,25 +804,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:G11"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.20703125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="15.61328125" style="9" customWidth="1"/>
-    <col min="2" max="2" width="11.921875" style="9" customWidth="1"/>
-    <col min="3" max="3" width="11.765625" style="9" customWidth="1"/>
+    <col min="1" max="1" width="15.62890625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="11.89453125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="11.734375" style="9" customWidth="1"/>
     <col min="4" max="4" width="27" style="9" customWidth="1"/>
-    <col min="5" max="5" width="14.15234375" style="9" customWidth="1"/>
-    <col min="6" max="6" width="14.3046875" style="9" customWidth="1"/>
-    <col min="7" max="16384" width="9.23046875" style="1"/>
+    <col min="5" max="5" width="14.15625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="14.3125" style="9" customWidth="1"/>
+    <col min="7" max="16384" width="9.20703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
@@ -825,6 +840,26 @@
       </c>
       <c r="F1" s="8" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="13">
+        <v>42987</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -833,25 +868,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.20703125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="15.61328125" style="9" customWidth="1"/>
-    <col min="2" max="2" width="11.921875" style="9" customWidth="1"/>
-    <col min="3" max="3" width="11.765625" style="9" customWidth="1"/>
+    <col min="1" max="1" width="15.62890625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="11.89453125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="11.734375" style="9" customWidth="1"/>
     <col min="4" max="4" width="27" style="9" customWidth="1"/>
-    <col min="5" max="5" width="14.15234375" style="9" customWidth="1"/>
-    <col min="6" max="6" width="14.3046875" style="9" customWidth="1"/>
-    <col min="7" max="16384" width="9.23046875" style="1"/>
+    <col min="5" max="5" width="14.15625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="14.3125" style="9" customWidth="1"/>
+    <col min="7" max="16384" width="9.20703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
